--- a/Requirement_List.xlsx
+++ b/Requirement_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estrel\Documents\GitHub\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D4405-008C-48E4-9530-C7B214C92A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CB1B5-415E-44BA-A285-68EFDB39424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3D3D4D0C-A7CC-4F8E-86DC-05F5ECA135A6}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자는 전체 대여 정보를 바탕으로 기간별 대여금액 및 대여횟수를 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자는 전체 대여 정보를 반납 시간 기준 최근 순으로 정렬하여 조회할 수 있다. 원하는 경우 지역별 기준으로 정렬할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>회원은 특정 자전거를 지정된 대여소에 반납할 수 있다. 요금은 반납 시 자동 결제된다. 대기 예약 1순위 회원은 이메일로 알림을 받을 수 있다. 회원은 자전거 반납 후에 외부 서비스를 통해 근처 식당을 추천 받고 예약할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 전체 대여 정보를 바탕으로 기간별 대여금액 및 대여횟수를 확인할 수 있다. 관리자는 1주일, 1개월, 1년 중 단위를 선택할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,28 +332,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,7 +673,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -787,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>4</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
@@ -845,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="67.5" x14ac:dyDescent="0.6">
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
@@ -875,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>24</v>
@@ -886,18 +886,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>30</v>
